--- a/Simulacion/solucion_21d_impl0.005t2.xlsx
+++ b/Simulacion/solucion_21d_impl0.005t2.xlsx
@@ -503,46 +503,46 @@
         <v>21235</v>
       </c>
       <c r="B2" t="n">
-        <v>3012.652200000001</v>
+        <v>3010.6612</v>
       </c>
       <c r="C2" t="n">
-        <v>28.93779999999833</v>
+        <v>30.92879999999923</v>
       </c>
       <c r="D2" t="n">
-        <v>3012.699000000001</v>
+        <v>3010.708</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8741598181818185</v>
+        <v>0.8684482738095242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8741598181818185</v>
+        <v>0.8684482738095242</v>
       </c>
       <c r="H2" t="n">
-        <v>13.14545454545454</v>
+        <v>13.07142857142857</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1930389512807097</v>
+        <v>0.2028457653457654</v>
       </c>
       <c r="J2" t="n">
-        <v>998218750</v>
+        <v>977173250</v>
       </c>
       <c r="K2" t="n">
-        <v>1236101000</v>
+        <v>1295798000</v>
       </c>
       <c r="L2" t="n">
-        <v>217167531</v>
+        <v>218013827</v>
       </c>
       <c r="M2" t="n">
-        <v>97526691.27861959</v>
+        <v>97463475.80952381</v>
       </c>
       <c r="N2" t="n">
-        <v>6683433058.5</v>
+        <v>6684891599.5</v>
       </c>
       <c r="O2" t="n">
-        <v>4134419086.22138</v>
+        <v>4096443046.690476</v>
       </c>
     </row>
   </sheetData>
